--- a/PROPERTIES/PRIANA/PRIANA 2025.xlsx
+++ b/PROPERTIES/PRIANA/PRIANA 2025.xlsx
@@ -3827,7 +3827,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
